--- a/Mifos Automation Excels/Client/2412-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-EARLY-CASH-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2412-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-EARLY-CASH-Newcreateloan2.xlsx
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -247,9 +247,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -599,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="A1:F5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +635,7 @@
       <c r="A2" s="9">
         <v>10000</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="7">
         <v>833.33</v>
       </c>
       <c r="C2" s="7"/>
@@ -648,16 +645,16 @@
       <c r="E2" s="10">
         <v>9166.67</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="7">
         <v>833.33</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>412.65</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="7">
+        <v>411.93</v>
+      </c>
+      <c r="B3" s="7">
         <v>16.989999999999998</v>
       </c>
       <c r="C3" s="7">
@@ -666,11 +663,11 @@
       <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="12">
-        <v>395.66</v>
-      </c>
-      <c r="F3" s="12">
-        <v>19.170000000000002</v>
+      <c r="E3" s="7">
+        <v>394.94</v>
+      </c>
+      <c r="F3" s="7">
+        <v>19.18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -724,7 +721,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,16 +836,14 @@
         <v>42019</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="12">
-        <f>10000/12</f>
-        <v>833.33333333333337</v>
+      <c r="F3" s="7">
+        <v>833.33</v>
       </c>
       <c r="G3" s="10">
-        <v>4165.74</v>
-      </c>
-      <c r="H3" s="12">
-        <f>G2*(4%/365)*B3</f>
-        <v>16.986301369863014</v>
+        <v>4166.67</v>
+      </c>
+      <c r="H3" s="7">
+        <v>16.989999999999998</v>
       </c>
       <c r="I3" s="7">
         <v>0</v>
@@ -856,17 +851,14 @@
       <c r="J3" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="12">
-        <f>F3+H3</f>
-        <v>850.31963470319636</v>
-      </c>
-      <c r="L3" s="12">
-        <f>K3</f>
-        <v>850.31963470319636</v>
-      </c>
-      <c r="M3" s="12">
-        <f>K3</f>
-        <v>850.31963470319636</v>
+      <c r="K3" s="7">
+        <v>850.32</v>
+      </c>
+      <c r="L3" s="7">
+        <v>850.32</v>
+      </c>
+      <c r="M3" s="7">
+        <v>850.32</v>
       </c>
       <c r="N3" s="7">
         <v>0</v>
@@ -875,7 +867,6 @@
         <v>0</v>
       </c>
       <c r="P3" s="7">
-        <f>K3-L3</f>
         <v>0</v>
       </c>
     </row>
@@ -896,8 +887,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="12">
-        <f t="shared" ref="K4:K15" si="0">F4+H4</f>
+      <c r="K4" s="7">
         <v>0</v>
       </c>
       <c r="L4" s="7">
@@ -920,16 +910,14 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="12">
-        <f t="shared" ref="F5:F14" si="1">10000/12</f>
-        <v>833.33333333333337</v>
+      <c r="F5" s="7">
+        <v>833.33</v>
       </c>
       <c r="G5" s="10">
-        <v>8327.27</v>
-      </c>
-      <c r="H5" s="12">
-        <f>G3*(6%/365)*B5</f>
-        <v>19.173816986301372</v>
+        <v>8333.34</v>
+      </c>
+      <c r="H5" s="7">
+        <v>19.18</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -937,9 +925,8 @@
       <c r="J5" s="7">
         <v>0</v>
       </c>
-      <c r="K5" s="12">
-        <f t="shared" si="0"/>
-        <v>852.50715031963477</v>
+      <c r="K5" s="7">
+        <v>852.51</v>
       </c>
       <c r="L5" s="7">
         <v>0</v>
@@ -953,9 +940,8 @@
       <c r="O5" s="7">
         <v>0</v>
       </c>
-      <c r="P5" s="12">
-        <f>K5</f>
-        <v>852.50715031963477</v>
+      <c r="P5" s="7">
+        <v>852.51</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -970,16 +956,14 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="12">
-        <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+      <c r="F6" s="7">
+        <v>833.33</v>
       </c>
       <c r="G6" s="10">
-        <v>7507.16</v>
-      </c>
-      <c r="H6" s="12">
-        <f>(G3+G4)*(8%/365)*B6</f>
-        <v>62.276808767123292</v>
+        <v>7500.01</v>
+      </c>
+      <c r="H6" s="7">
+        <v>62.28</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -987,9 +971,8 @@
       <c r="J6" s="7">
         <v>0</v>
       </c>
-      <c r="K6" s="12">
-        <f t="shared" si="0"/>
-        <v>895.61014210045664</v>
+      <c r="K6" s="7">
+        <v>895.61</v>
       </c>
       <c r="L6" s="7">
         <v>0</v>
@@ -1003,9 +986,8 @@
       <c r="O6" s="7">
         <v>0</v>
       </c>
-      <c r="P6" s="12">
-        <f t="shared" ref="P6:P15" si="2">K6</f>
-        <v>895.61014210045664</v>
+      <c r="P6" s="7">
+        <v>895.61</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1020,16 +1002,14 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="12">
-        <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+      <c r="F7" s="7">
+        <v>833.33</v>
       </c>
       <c r="G7" s="10">
-        <v>6680.59</v>
-      </c>
-      <c r="H7" s="12">
-        <f>G6*(10%/365)*B7</f>
-        <v>61.702684931506859</v>
+        <v>6666.68</v>
+      </c>
+      <c r="H7" s="7">
+        <v>61.64</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1037,9 +1017,8 @@
       <c r="J7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="12">
-        <f t="shared" si="0"/>
-        <v>895.03601826484021</v>
+      <c r="K7" s="7">
+        <v>894.97</v>
       </c>
       <c r="L7" s="7">
         <v>0</v>
@@ -1053,9 +1032,8 @@
       <c r="O7" s="7">
         <v>0</v>
       </c>
-      <c r="P7" s="12">
-        <f t="shared" si="2"/>
-        <v>895.03601826484021</v>
+      <c r="P7" s="7">
+        <v>894.97</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1070,16 +1048,14 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="12">
-        <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+      <c r="F8" s="7">
+        <v>833.33</v>
       </c>
       <c r="G8" s="10">
-        <v>5852.04</v>
-      </c>
-      <c r="H8" s="12">
-        <f t="shared" ref="H8:H15" si="3">G7*(10%/365)*B8</f>
-        <v>56.739257534246583</v>
+        <v>5833.35</v>
+      </c>
+      <c r="H8" s="7">
+        <v>56.62</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1087,9 +1063,8 @@
       <c r="J8" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="12">
-        <f t="shared" si="0"/>
-        <v>890.07259086757995</v>
+      <c r="K8" s="7">
+        <v>889.95</v>
       </c>
       <c r="L8" s="7">
         <v>0</v>
@@ -1103,9 +1078,8 @@
       <c r="O8" s="7">
         <v>0</v>
       </c>
-      <c r="P8" s="12">
-        <f t="shared" si="2"/>
-        <v>890.07259086757995</v>
+      <c r="P8" s="7">
+        <v>889.95</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1120,16 +1094,14 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="12">
-        <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+      <c r="F9" s="7">
+        <v>833.33</v>
       </c>
       <c r="G9" s="10">
-        <v>5020.03</v>
-      </c>
-      <c r="H9" s="12">
-        <f t="shared" si="3"/>
-        <v>48.098958904109594</v>
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="H9" s="7">
+        <v>47.95</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1137,9 +1109,8 @@
       <c r="J9" s="7">
         <v>0</v>
       </c>
-      <c r="K9" s="12">
-        <f t="shared" si="0"/>
-        <v>881.43229223744299</v>
+      <c r="K9" s="7">
+        <v>881.28</v>
       </c>
       <c r="L9" s="7">
         <v>0</v>
@@ -1153,9 +1124,8 @@
       <c r="O9" s="7">
         <v>0</v>
       </c>
-      <c r="P9" s="12">
-        <f t="shared" si="2"/>
-        <v>881.43229223744299</v>
+      <c r="P9" s="7">
+        <v>881.28</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1170,16 +1140,14 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="12">
-        <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+      <c r="F10" s="7">
+        <v>833.33</v>
       </c>
       <c r="G10" s="10">
-        <v>4185.83</v>
-      </c>
-      <c r="H10" s="12">
-        <f t="shared" si="3"/>
-        <v>42.635871232876717</v>
+        <v>4166.6899999999996</v>
+      </c>
+      <c r="H10" s="7">
+        <v>42.47</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1187,9 +1155,8 @@
       <c r="J10" s="7">
         <v>0</v>
       </c>
-      <c r="K10" s="12">
-        <f t="shared" si="0"/>
-        <v>875.96920456621012</v>
+      <c r="K10" s="7">
+        <v>875.8</v>
       </c>
       <c r="L10" s="7">
         <v>0</v>
@@ -1203,9 +1170,8 @@
       <c r="O10" s="7">
         <v>0</v>
       </c>
-      <c r="P10" s="12">
-        <f t="shared" si="2"/>
-        <v>875.96920456621012</v>
+      <c r="P10" s="7">
+        <v>875.8</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1220,16 +1186,14 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="12">
-        <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+      <c r="F11" s="7">
+        <v>833.33</v>
       </c>
       <c r="G11" s="10">
-        <v>3348.8</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="3"/>
-        <v>35.55088493150685</v>
+        <v>3333.36</v>
+      </c>
+      <c r="H11" s="7">
+        <v>35.39</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1237,9 +1201,8 @@
       <c r="J11" s="7">
         <v>0</v>
       </c>
-      <c r="K11" s="12">
-        <f t="shared" si="0"/>
-        <v>868.88421826484023</v>
+      <c r="K11" s="7">
+        <v>868.72</v>
       </c>
       <c r="L11" s="7">
         <v>0</v>
@@ -1253,9 +1216,8 @@
       <c r="O11" s="7">
         <v>0</v>
       </c>
-      <c r="P11" s="12">
-        <f t="shared" si="2"/>
-        <v>868.88421826484023</v>
+      <c r="P11" s="7">
+        <v>868.72</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1270,16 +1232,14 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="12">
-        <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+      <c r="F12" s="7">
+        <v>833.33</v>
       </c>
       <c r="G12" s="10">
-        <v>2508.56</v>
-      </c>
-      <c r="H12" s="12">
-        <f t="shared" si="3"/>
-        <v>27.524383561643837</v>
+        <v>2500.0300000000002</v>
+      </c>
+      <c r="H12" s="7">
+        <v>27.4</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1287,9 +1247,8 @@
       <c r="J12" s="7">
         <v>0</v>
       </c>
-      <c r="K12" s="12">
-        <f t="shared" si="0"/>
-        <v>860.85771689497722</v>
+      <c r="K12" s="7">
+        <v>860.73</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
@@ -1303,9 +1262,8 @@
       <c r="O12" s="7">
         <v>0</v>
       </c>
-      <c r="P12" s="12">
-        <f t="shared" si="2"/>
-        <v>860.85771689497722</v>
+      <c r="P12" s="7">
+        <v>860.73</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1320,16 +1278,14 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="12">
-        <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+      <c r="F13" s="7">
+        <v>833.33</v>
       </c>
       <c r="G13" s="10">
-        <v>1665.83</v>
-      </c>
-      <c r="H13" s="12">
-        <f t="shared" si="3"/>
-        <v>21.305578082191783</v>
+        <v>1666.7</v>
+      </c>
+      <c r="H13" s="7">
+        <v>21.23</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1337,9 +1293,8 @@
       <c r="J13" s="7">
         <v>0</v>
       </c>
-      <c r="K13" s="12">
-        <f t="shared" si="0"/>
-        <v>854.63891141552517</v>
+      <c r="K13" s="7">
+        <v>854.56</v>
       </c>
       <c r="L13" s="7">
         <v>0</v>
@@ -1353,9 +1308,8 @@
       <c r="O13" s="7">
         <v>0</v>
       </c>
-      <c r="P13" s="12">
-        <f t="shared" si="2"/>
-        <v>854.63891141552517</v>
+      <c r="P13" s="7">
+        <v>854.56</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1370,16 +1324,14 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="12">
-        <f t="shared" si="1"/>
-        <v>833.33333333333337</v>
+      <c r="F14" s="7">
+        <v>833.33</v>
       </c>
       <c r="G14" s="7">
-        <v>820.06</v>
-      </c>
-      <c r="H14" s="12">
-        <f t="shared" si="3"/>
-        <v>13.691753424657534</v>
+        <v>833.37</v>
+      </c>
+      <c r="H14" s="7">
+        <v>13.7</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1387,9 +1339,8 @@
       <c r="J14" s="7">
         <v>0</v>
       </c>
-      <c r="K14" s="12">
-        <f t="shared" si="0"/>
-        <v>847.02508675799095</v>
+      <c r="K14" s="7">
+        <v>847.03</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -1403,9 +1354,8 @@
       <c r="O14" s="7">
         <v>0</v>
       </c>
-      <c r="P14" s="12">
-        <f t="shared" si="2"/>
-        <v>847.02508675799095</v>
+      <c r="P14" s="7">
+        <v>847.03</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1420,16 +1370,14 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="12">
-        <f>G14</f>
-        <v>820.06</v>
+      <c r="F15" s="7">
+        <v>833.37</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
       </c>
-      <c r="H15" s="12">
-        <f t="shared" si="3"/>
-        <v>6.9648931506849321</v>
+      <c r="H15" s="7">
+        <v>7.08</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
@@ -1437,9 +1385,8 @@
       <c r="J15" s="7">
         <v>0</v>
       </c>
-      <c r="K15" s="12">
-        <f t="shared" si="0"/>
-        <v>827.02489315068487</v>
+      <c r="K15" s="7">
+        <v>840.45</v>
       </c>
       <c r="L15" s="7">
         <v>0</v>
@@ -1453,9 +1400,8 @@
       <c r="O15" s="7">
         <v>0</v>
       </c>
-      <c r="P15" s="12">
-        <f t="shared" si="2"/>
-        <v>827.02489315068487</v>
+      <c r="P15" s="7">
+        <v>840.45</v>
       </c>
     </row>
   </sheetData>
@@ -1469,7 +1415,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,7 +1467,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1547,15 +1493,15 @@
       <c r="I2" s="7">
         <v>0</v>
       </c>
-      <c r="J2" s="9">
-        <v>10000</v>
+      <c r="J2" s="10">
+        <v>9166.67</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1567,12 +1513,12 @@
         <v>33</v>
       </c>
       <c r="E3" s="7">
-        <v>850.31963470000005</v>
-      </c>
-      <c r="F3" s="12">
+        <v>850.32</v>
+      </c>
+      <c r="F3" s="7">
         <v>833.33</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="7">
         <v>16.989999999999998</v>
       </c>
       <c r="H3" s="7">
@@ -1581,15 +1527,15 @@
       <c r="I3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="7">
-        <v>0</v>
+      <c r="J3" s="10">
+        <v>4166.67</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/2412-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-EARLY-CASH-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2412-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-EARLY-CASH-Newcreateloan2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -124,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,6 +264,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -306,7 +314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,9 +347,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,6 +399,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -718,10 +760,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,12 +781,13 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.140625" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -784,17 +827,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -821,8 +865,9 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -860,17 +905,18 @@
       <c r="M3" s="7">
         <v>850.32</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
+      <c r="N3" s="7"/>
       <c r="O3" s="7">
         <v>0</v>
       </c>
       <c r="P3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8">
@@ -897,8 +943,9 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -934,17 +981,18 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7">
         <v>0</v>
       </c>
       <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
         <v>852.51</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -980,17 +1028,18 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7">
         <v>0</v>
       </c>
       <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
         <v>895.61</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1026,17 +1075,18 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7">
         <v>0</v>
       </c>
       <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
         <v>894.97</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1072,17 +1122,18 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7">
         <v>0</v>
       </c>
       <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
         <v>889.95</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1118,17 +1169,18 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7">
         <v>0</v>
       </c>
       <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
         <v>881.28</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1164,17 +1216,18 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7">
         <v>0</v>
       </c>
       <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
         <v>875.8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1210,17 +1263,18 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7">
         <v>0</v>
       </c>
       <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
         <v>868.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1256,17 +1310,18 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7">
         <v>0</v>
       </c>
       <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
         <v>860.73</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1302,17 +1357,18 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7">
         <v>0</v>
       </c>
       <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
         <v>854.56</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -1348,17 +1404,18 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7">
         <v>0</v>
       </c>
       <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
         <v>847.03</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -1394,13 +1451,14 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7">
         <v>0</v>
       </c>
       <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
         <v>840.45</v>
       </c>
     </row>
@@ -1414,7 +1472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
